--- a/va_facility_data_2025-02-20/Catskill VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Catskill%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Catskill VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Catskill%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Re3120c0b8bd1421eba301ae91607e92a"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R5ad50c1a1f064b32b586819814dbe4fb"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R4bd08ffe58e74ba9adcbed426e757970"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R36e7bd6f5cf94c6e82a0fd14d013e532"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R077bfbb51df3479a8f98a03d1ac69d12"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R5d27aa60bdea407d97c4daed20c1dde9"/>
   </x:sheets>
 </x:workbook>
 </file>
